--- a/Assets/OriginalDatas/Language.xlsx
+++ b/Assets/OriginalDatas/Language.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B100" authorId="0" shapeId="0">
+    <comment ref="B102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B101" authorId="0" shapeId="0">
+    <comment ref="B103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B116" authorId="0" shapeId="0">
+    <comment ref="B118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B117" authorId="0" shapeId="0">
+    <comment ref="B119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="377">
   <si>
     <t>字段ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,6 +1397,22 @@
   </si>
   <si>
     <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock G-Virus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock T-Virus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁G病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁T病毒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,6 +1472,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1477,13 +1500,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1764,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2796,1058 +2820,1080 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>80</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>80</v>
+      <c r="A93" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>342</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" t="s">
-        <v>342</v>
+      <c r="A94" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B94" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C112" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>366</v>
+        <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="C117" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C118" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C121" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C144" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C149" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C150" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C151" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C152" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C153" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C161" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C162" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C163" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C164" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C165" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C167" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C170" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C173" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C174" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C176" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C177" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C178" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C179" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C180" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C181" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C182" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C183" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C186" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>251</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>252</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C189" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>253</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C190" t="s">
         <v>253</v>
       </c>
     </row>

--- a/Assets/OriginalDatas/Language.xlsx
+++ b/Assets/OriginalDatas/Language.xlsx
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0" shapeId="0">
+    <comment ref="A68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,32 +215,6 @@
           </rPr>
           <t xml:space="preserve">
 越大，则研发速度越慢</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B76" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-设定基础值，在各个关卡模式中由关卡指定</t>
         </r>
       </text>
     </comment>
@@ -270,7 +244,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="B106" authorId="0" shapeId="0">
+    <comment ref="B78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设定基础值，在各个关卡模式中由关卡指定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B107" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B109" authorId="0" shapeId="0">
+    <comment ref="B110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B118" authorId="0" shapeId="0">
+    <comment ref="B119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B121" authorId="0" shapeId="0">
+    <comment ref="B122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C124" authorId="0" shapeId="0">
+    <comment ref="C125" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -412,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C125" authorId="0" shapeId="0">
+    <comment ref="C126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C126" authorId="0" shapeId="0">
+    <comment ref="C127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,32 +461,6 @@
           </rPr>
           <t xml:space="preserve">
 越大，则研发速度越慢</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B134" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-设定基础值，在各个关卡模式中由关卡指定</t>
         </r>
       </text>
     </comment>
@@ -516,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B150" authorId="0" shapeId="0">
+    <comment ref="B136" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,12 +542,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B152" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设定基础值，在各个关卡模式中由关卡指定</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="475">
   <si>
     <t>字段ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2364,6 +2364,18 @@
   </si>
   <si>
     <t>InfectShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2760,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2938,2619 +2950,2630 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" t="str">
-        <f>"第"&amp;A16&amp;"关"</f>
-        <v>第1关</v>
-      </c>
-      <c r="C16" t="s">
-        <v>200</v>
+      <c r="A16" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B22" si="0">"第"&amp;A17&amp;"关"</f>
-        <v>第2关</v>
+        <f>"第"&amp;A17&amp;"关"</f>
+        <v>第1关</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:B23" si="0">"第"&amp;A18&amp;"关"</f>
+        <v>第2关</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>第3关</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>4</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>第4关</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>第5关</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>第6关</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>第7关</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" t="s">
-        <v>269</v>
+        <v>277</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C42" s="6" t="str">
-        <f>A42</f>
-        <v>InfectSpeed</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" ref="C43:C99" si="1">A43</f>
-        <v>InfectHuman_1</v>
+        <f>A43</f>
+        <v>InfectSpeed</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f t="shared" ref="C44:C100" si="1">A44</f>
+        <v>InfectHuman_1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectHuman_2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C45" s="6" t="str">
+      <c r="C46" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectHuman_3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C46" s="6" t="str">
+      <c r="C47" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectHuman_4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C47" s="6" t="str">
+      <c r="C48" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectHuman_5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C49" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectBlock_Climate_1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C49" s="6" t="str">
+      <c r="C50" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectBlock_Climate_2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C51" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectBlock_Climate_3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C52" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectBlock_Envi_1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C53" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectBlock_Envi_2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="6" t="str">
+      <c r="C54" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectBlock_Envi_3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B55" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="6" t="str">
+      <c r="C55" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateRate</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="6" t="str">
+      <c r="C56" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateHuman_1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="6" t="str">
+      <c r="C57" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateHuman_2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="6" t="str">
+      <c r="C58" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateHuman_3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="6" t="str">
+      <c r="C59" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateHuman_4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="6" t="str">
+      <c r="C60" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateHuman_5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="6" t="str">
+      <c r="C61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateBlock_Climate_1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C61" s="6" t="str">
+      <c r="C62" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateBlock_Climate_2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C62" s="6" t="str">
+      <c r="C63" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateBlock_Climate_3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C63" s="6" t="str">
+      <c r="C64" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateBlock_Envi_1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C64" s="6" t="str">
+      <c r="C65" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateBlock_Envi_2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C65" s="6" t="str">
+      <c r="C66" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicateBlock_Envi_3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C66" s="6" t="str">
+      <c r="C67" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Medi_Start</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C67" s="6" t="str">
+      <c r="C68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Medi_Work</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C68" s="6" t="str">
+      <c r="C69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Medi_Spd</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C69" s="6" t="str">
+      <c r="C70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>MaxHP</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C70" s="6" t="str">
+      <c r="C71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>MaxInfection</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="6" t="str">
+      <c r="C72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Atk</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C72" s="6" t="str">
+      <c r="C73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Heal</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C73" s="6" t="str">
+      <c r="C74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Def</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="6" t="str">
+      <c r="C75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Cure</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B76" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="6" t="str">
+      <c r="C76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectShield</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectionAnti</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="6" t="str">
+      <c r="C78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CommunicationAnti</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C78" s="6" t="str">
+      <c r="C79" s="6" t="str">
         <f t="shared" si="1"/>
         <v>HPHealing</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C79" s="6" t="str">
+      <c r="C80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ClimateBoost_1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="6" t="str">
+      <c r="C81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ClimateBoost_2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="6" t="str">
+      <c r="C82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ClimateBoost_3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C82" s="6" t="str">
+      <c r="C83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>EnviBoost_1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B84" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="6" t="str">
+      <c r="C84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>EnviBoost_2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="6" t="str">
+      <c r="C85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>EnviBoost_3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B86" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C85" s="6" t="str">
+      <c r="C86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>MaxHP</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C86" s="6" t="str">
+      <c r="C87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Atk</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C87" s="6" t="str">
+      <c r="C88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Heal</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C88" s="6" t="str">
+      <c r="C89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Def</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C89" s="6" t="str">
+      <c r="C90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Infect</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C90" s="6" t="str">
+      <c r="C91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>InfectShield</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C91" s="6" t="str">
+      <c r="C92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>HPDecay</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C92" s="6" t="str">
+      <c r="C93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>DrainLife</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C93" s="6" t="str">
+      <c r="C94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>AbilityID</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B95" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="6" t="str">
+      <c r="C95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ClimateBoost_1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="6" t="str">
+      <c r="C96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ClimateBoost_2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="6" t="str">
+      <c r="C97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ClimateBoost_3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C97" s="6" t="str">
+      <c r="C98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>EnviBoost_1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B99" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="6" t="str">
+      <c r="C99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>EnviBoost_2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="6" t="str">
+      <c r="C100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>EnviBoost_3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>354</v>
+        <v>246</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>405</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>270</v>
+        <v>439</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>62</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>445</v>
+        <v>71</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>467</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>73</v>
+        <v>445</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>357</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>270</v>
+        <v>439</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>468</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>363</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>471</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>445</v>
+        <v>71</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>73</v>
+        <v>445</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>64</v>
+        <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>435</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>436</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B159" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>379</v>
+        <v>17</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>449</v>
+        <v>21</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>454</v>
+        <v>374</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>69</v>
+        <v>398</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>62</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>452</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>64</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B174" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" t="s">
-        <v>27</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B175" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C178" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C182" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C183" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C184" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C185" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" t="s">
+        <v>51</v>
+      </c>
+      <c r="C186" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>40</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>52</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B187" t="s">
-        <v>263</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B188" t="s">
+        <v>263</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>264</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C189" s="4" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>75</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C189" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C191" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C197" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C198" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C199" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C200" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C201" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C202" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C203" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C204" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C205" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C206" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C207" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C208" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C212" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C213" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C215" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C218" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C219" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C222" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C223" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C224" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C225" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C226" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C227" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C228" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C229" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C232" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C233" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C234" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C235" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C236" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C239" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C243" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C244" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C245" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C246" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>193</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C247" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>194</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C248" t="s">
         <v>194</v>
       </c>
     </row>
